--- a/files/rating_change/2024#91.xlsx
+++ b/files/rating_change/2024#91.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,55 +454,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蓝玉婷</t>
+          <t>赵星如</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1450</v>
+        <v>1535</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1547</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>李家诚</t>
+          <t>赵紫瑜</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1573</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1614</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>方奕俊</t>
+          <t>张宇</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1573</v>
+        <v>1535</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1614</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="5">
@@ -511,36 +511,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>罗豪</t>
+          <t>刘爱平</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1535</v>
+        <v>1450</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1554</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>郭宇杰</t>
+          <t>周星同</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1513</v>
+        <v>1475</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1542</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="7">
@@ -549,55 +549,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>赵星如</t>
+          <t>罗豪</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1535</v>
+        <v>1573</v>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1531</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>颜琪翊加</t>
+          <t>丁烨希</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1513</v>
+        <v>1496</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1519</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>彭灿</t>
+          <t>李家诚</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1513</v>
+        <v>1573</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1519</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="10">
@@ -606,36 +606,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>李志宇</t>
+          <t>蓝玉婷</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1496</v>
+        <v>1450</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1493</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>丁烨希</t>
+          <t>方奕俊</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1496</v>
+        <v>1573</v>
       </c>
       <c r="D11" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1493</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="12">
@@ -644,17 +644,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>李洋</t>
+          <t>沈锐</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1487</v>
+        <v>1462</v>
       </c>
       <c r="D12" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1479</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="13">
@@ -663,150 +663,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>肖薛林</t>
+          <t>颜琪翊加</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1475</v>
+        <v>1513</v>
       </c>
       <c r="D13" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1463</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>周星同</t>
+          <t>李志宇</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="D14" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>罗海波</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1475</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>林立仁</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1462</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-18</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>沈锐</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1462</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-18</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>刘爱平</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-23</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>陈皓轩</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>张宇</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1573</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-94</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1479</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
